--- a/Next JS/Day 2 Next (31-02)/final-test/Users.xlsx
+++ b/Next JS/Day 2 Next (31-02)/final-test/Users.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>Code</t>
   </si>
@@ -40,145 +40,121 @@
     <t>Country</t>
   </si>
   <si>
-    <t>USR001</t>
-  </si>
-  <si>
-    <t>Bhavya Patel</t>
-  </si>
-  <si>
-    <t>bhavya@gmail.com</t>
+    <t>USR004</t>
+  </si>
+  <si>
+    <t>adnan Samol</t>
+  </si>
+  <si>
+    <t>adnan@gmail.com</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Reading,Cricket,Dancing,Singing</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>28/03/2023 12:45:09</t>
+  </si>
+  <si>
+    <t>2023-04-03T11:45:46.000Z</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>USR005</t>
+  </si>
+  <si>
+    <t>Jhon Deo</t>
+  </si>
+  <si>
+    <t>jhon@gmail.com</t>
+  </si>
+  <si>
+    <t>Reading,Travelling</t>
+  </si>
+  <si>
+    <t>28/03/2023 06:19:52</t>
+  </si>
+  <si>
+    <t>2023-04-03T11:45:55.000Z</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>USR006</t>
+  </si>
+  <si>
+    <t>Addison Stewart</t>
+  </si>
+  <si>
+    <t>agaudreault@gmail.com</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>Travelling,Football,Singing</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>28/03/2023 12:05:36</t>
-  </si>
-  <si>
-    <t>2023-04-04T04:37:01.000Z</t>
+    <t>Singing,Dancing</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>03/04/2023 05:24:08</t>
   </si>
   <si>
     <t>Canada</t>
   </si>
   <si>
-    <t>USR002</t>
-  </si>
-  <si>
-    <t>Nikita Sharma</t>
-  </si>
-  <si>
-    <t>nikita@gmail.com</t>
-  </si>
-  <si>
-    <t>Reading,Singing,Dancing</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>2023-04-04T03:23:02.000Z</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>USR003</t>
-  </si>
-  <si>
-    <t>Shubham Talati</t>
+    <t>USR007</t>
+  </si>
+  <si>
+    <t>Indrani Setty</t>
+  </si>
+  <si>
+    <t>indrani@gmail.com</t>
+  </si>
+  <si>
+    <t>Dancing,Singing</t>
+  </si>
+  <si>
+    <t>04/04/2023 09:10:30</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>USR009</t>
+  </si>
+  <si>
+    <t>Parth Patel</t>
+  </si>
+  <si>
+    <t>parth@gmail.com</t>
+  </si>
+  <si>
+    <t>Reading,Travelling,Football</t>
+  </si>
+  <si>
+    <t>10/04/2023 10:56:57</t>
+  </si>
+  <si>
+    <t>USR010</t>
+  </si>
+  <si>
+    <t>Shubham talati</t>
   </si>
   <si>
     <t>Shubham@gmail.com</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Reading,Singing,Cricket</t>
-  </si>
-  <si>
-    <t>03/04/2023 04:36:51</t>
-  </si>
-  <si>
-    <t>2023-04-04T04:55:12.000Z</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>USR004</t>
-  </si>
-  <si>
-    <t>adnan Samol</t>
-  </si>
-  <si>
-    <t>adnan@gmail.com</t>
-  </si>
-  <si>
-    <t>Reading,Cricket,Dancing,Singing</t>
-  </si>
-  <si>
-    <t>28/03/2023 12:45:09</t>
-  </si>
-  <si>
-    <t>2023-04-03T11:45:46.000Z</t>
-  </si>
-  <si>
-    <t>USR005</t>
-  </si>
-  <si>
-    <t>Jhon Deo</t>
-  </si>
-  <si>
-    <t>jhon@gmail.com</t>
-  </si>
-  <si>
-    <t>Reading,Travelling</t>
-  </si>
-  <si>
-    <t>28/03/2023 06:19:52</t>
-  </si>
-  <si>
-    <t>2023-04-03T11:45:55.000Z</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>USR006</t>
-  </si>
-  <si>
-    <t>Addison Stewart</t>
-  </si>
-  <si>
-    <t>agaudreault@gmail.com</t>
-  </si>
-  <si>
-    <t>Singing,Dancing</t>
-  </si>
-  <si>
-    <t>03/04/2023 05:24:08</t>
-  </si>
-  <si>
-    <t>USR007</t>
-  </si>
-  <si>
-    <t>Indrani Setty</t>
-  </si>
-  <si>
-    <t>indrani@gmail.com</t>
-  </si>
-  <si>
-    <t>Dancing,Singing</t>
-  </si>
-  <si>
-    <t>04/04/2023 09:10:30</t>
+    <t>10/04/2023 11:07:17</t>
   </si>
 </sst>
 </file>
@@ -555,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -641,10 +617,10 @@
         <v>21</v>
       </c>
       <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
@@ -670,12 +646,9 @@
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
         <v>31</v>
       </c>
       <c r="I4" t="s">
@@ -699,16 +672,13 @@
         <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
         <v>37</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>38</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -722,74 +692,45 @@
         <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
         <v>43</v>
       </c>
-      <c r="H6" t="s">
-        <v>44</v>
-      </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
         <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Next JS/Day 2 Next (31-02)/final-test/Users.xlsx
+++ b/Next JS/Day 2 Next (31-02)/final-test/Users.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>Code</t>
   </si>
@@ -58,10 +58,10 @@
     <t>Y</t>
   </si>
   <si>
-    <t>28/03/2023 12:45:09</t>
-  </si>
-  <si>
-    <t>2023-04-03T11:45:46.000Z</t>
+    <t>12/04/2023 09:15:29</t>
+  </si>
+  <si>
+    <t>2023-04-12T03:50:36.000Z</t>
   </si>
   <si>
     <t>USA</t>
@@ -79,10 +79,7 @@
     <t>Reading,Travelling</t>
   </si>
   <si>
-    <t>28/03/2023 06:19:52</t>
-  </si>
-  <si>
-    <t>2023-04-03T11:45:55.000Z</t>
+    <t>2023-04-12T03:45:29.000Z</t>
   </si>
   <si>
     <t>Australia</t>
@@ -106,9 +103,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>03/04/2023 05:24:08</t>
-  </si>
-  <si>
     <t>Canada</t>
   </si>
   <si>
@@ -124,12 +118,24 @@
     <t>Dancing,Singing</t>
   </si>
   <si>
-    <t>04/04/2023 09:10:30</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
+    <t>USR008</t>
+  </si>
+  <si>
+    <t>Vinod Kapoor</t>
+  </si>
+  <si>
+    <t>vinod@gmail.com</t>
+  </si>
+  <si>
+    <t>Dancing</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
     <t>USR009</t>
   </si>
   <si>
@@ -142,9 +148,6 @@
     <t>Reading,Travelling,Football</t>
   </si>
   <si>
-    <t>10/04/2023 10:56:57</t>
-  </si>
-  <si>
     <t>USR010</t>
   </si>
   <si>
@@ -154,7 +157,10 @@
     <t>Shubham@gmail.com</t>
   </si>
   <si>
-    <t>10/04/2023 11:07:17</t>
+    <t>12/04/2023 09:24:15</t>
+  </si>
+  <si>
+    <t>2023-04-12T03:54:15.000Z</t>
   </si>
 </sst>
 </file>
@@ -531,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -620,117 +626,155 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
         <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
         <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
         <v>47</v>
       </c>
-      <c r="I7" t="s">
-        <v>24</v>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
